--- a/2_ranky_W.xlsx
+++ b/2_ranky_W.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7E78D9-19A5-4E7E-BACD-6D042B5D1C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15A3BD7-4752-4033-B7AB-28808A06035F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="-14136" windowWidth="18624" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-780" yWindow="-15492" windowWidth="17028" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B598" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
